--- a/biology/Zoologie/Exoprosopa/Exoprosopa.xlsx
+++ b/biology/Zoologie/Exoprosopa/Exoprosopa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Argyrospila, Cladodisca, Defilippia, Exoptata, Litomyza, Litorhynchus, Litorrhynchus, Trinaria
 Exoprosopa est un genre d'insectes diptères de la famille des Bombyliidae.
@@ -512,52 +524,55 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Exoprosopa a été créé par Macquart en 1840[1].
-Synonymes
-Litorhynchus Macquart, 1840
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Exoprosopa a été créé par Macquart en 1840.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Exoprosopa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exoprosopa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Litorhynchus Macquart, 1840
 Trinaria Mulsant, 1852
 Argyrospila Rondani, 1856
 Defilippia Lioy, 1864
 Litorrhynchus Verrall in Scudder, 1882
 Exoptata Coquillett, 1887
 Cladodisca Bezzi, 1922
-Litomyza Hull, 1973[2]
-Espèce type
-L'espèce type est Exoprosopa capucina Fabricius, 1781.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Exoprosopa</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Exoprosopa</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Présentation</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Exoprosopa est un grand genre cosmopolite de mouches de la famille des Bombyliidae, avec plus de 325 espèces décrites[3]. Le genre parasite un large éventail d'insectes, y compris les criquets et les larves de guêpes.
-</t>
+Litomyza Hull, 1973</t>
         </is>
       </c>
     </row>
@@ -582,12 +597,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce genre contient de grandes mouches d'environ 14 mm, parfois plus grandes, jusqu'à 22 mm, bien que quelques espèces soient également plus petites que 6 mm. La trompe est courte. La tête est grande et peu attachée au thorax. Les antennes sont petites et bien séparées. Les ailes sont grandes, avec une envergure de 40 mm, jusqu'à 64 mm chez les plus grandes espèces, presque toujours à motifs audacieux ; abdomen à motifs (souvent bagués) avec des écailles blanches ou pâles sur les segments 6 et 7 ou sur chaque segment. De nombreuses espèces sont sexuellement dimorphes[3].
+          <t>Espèce type</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce type est Exoprosopa capucina Fabricius, 1781.
 </t>
         </is>
       </c>
@@ -613,12 +634,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces se trouvent dans le monde entier, mais l'Afrique australe est particulièrement riche en espèces avec plus de 135 espèces[3].
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Exoprosopa est un grand genre cosmopolite de mouches de la famille des Bombyliidae, avec plus de 325 espèces décrites. Le genre parasite un large éventail d'insectes, y compris les criquets et les larves de guêpes.
 </t>
         </is>
       </c>
@@ -644,13 +667,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Espèce fossile</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database en 2023, une seule espèce est fossile[1] :
-†Exoprosopa romani Théobald, 1937[1]</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre contient de grandes mouches d'environ 14 mm, parfois plus grandes, jusqu'à 22 mm, bien que quelques espèces soient également plus petites que 6 mm. La trompe est courte. La tête est grande et peu attachée au thorax. Les antennes sont petites et bien séparées. Les ailes sont grandes, avec une envergure de 40 mm, jusqu'à 64 mm chez les plus grandes espèces, presque toujours à motifs audacieux ; abdomen à motifs (souvent bagués) avec des écailles blanches ou pâles sur les segments 6 et 7 ou sur chaque segment. De nombreuses espèces sont sexuellement dimorphes.
+</t>
         </is>
       </c>
     </row>
@@ -675,12 +700,80 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces se trouvent dans le monde entier, mais l'Afrique australe est particulièrement riche en espèces avec plus de 135 espèces.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Exoprosopa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exoprosopa</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Espèce fossile</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, une seule espèce est fossile :
+†Exoprosopa romani Théobald, 1937</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Exoprosopa</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exoprosopa</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Liste d'espèces vivantes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces 372 espèces appartiennent à Exoprosopa, un genre de mouches de la famille des Bombyliidae[4],[5],[6],[7].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces 372 espèces appartiennent à Exoprosopa, un genre de mouches de la famille des Bombyliidae.
 Liste des espèces vivantes
 Exoprosopa aberrans Paramonov, 1928 c g
 Exoprosopa abjecta Nurse, 1922 c g
@@ -1054,7 +1147,7 @@
 Exoprosopa zanoni Bezzi, 1922 c g
 Exoprosopa zarudnyji Paramonov, 1928 c g
 Exoprosopa zimini Paramonov, 1929 c g
-Data sources: i = ITIS[4], c = Catalogue of Life[5], g = GBIF[6], b = Bugguide.net[7][4],[5],[6],[7]
+Data sources: i = ITIS, c = Catalogue of Life, g = GBIF, b = Bugguide.net
 </t>
         </is>
       </c>
